--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp5.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,20 +480,20 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-11.46166666666669</v>
+        <v>-11.46166666666666</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-11.46166666666669</v>
+        <v>-11.46166666666666</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0</v>
+        <v>-1.77635683940025e-15</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
         <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.1389761904761819</v>
+        <v>-0.1389761904761979</v>
       </c>
     </row>
     <row r="3">
@@ -501,20 +501,20 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-11.56880952380954</v>
+        <v>-11.56880952380953</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-11.4639642857143</v>
+        <v>-11.46396428571428</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.1048452380952316</v>
+        <v>-0.104845238095244</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
         <v>-0.1</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.3308095238095135</v>
+        <v>-0.3308095238095241</v>
       </c>
     </row>
     <row r="4">
@@ -522,13 +522,13 @@
         <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-11.60523809523811</v>
+        <v>-11.6052380952381</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-11.46626190476192</v>
+        <v>-11.4662619047619</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1389761904761819</v>
+        <v>-0.1389761904761979</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -539,13 +539,13 @@
         <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-11.59761904761906</v>
+        <v>-11.59761904761905</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-11.46855952380954</v>
+        <v>-11.46855952380952</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1290595238095129</v>
+        <v>-0.1290595238095271</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -559,10 +559,10 @@
         <v>-11.57619047619048</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-11.47085714285716</v>
+        <v>-11.47085714285714</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1053333333333217</v>
+        <v>-0.1053333333333359</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -573,13 +573,13 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-11.57142857142858</v>
+        <v>-11.57142857142857</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-11.47315476190478</v>
+        <v>-11.47315476190476</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.09827380952379627</v>
+        <v>-0.09827380952381404</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -590,13 +590,13 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-11.56904761904763</v>
+        <v>-11.56904761904762</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-11.4754523809524</v>
+        <v>-11.47545238095238</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.09359523809522763</v>
+        <v>-0.09359523809524184</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -607,13 +607,13 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-11.57238095238096</v>
+        <v>-11.57238095238095</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-11.47775000000002</v>
+        <v>-11.47775</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.09463095238094077</v>
+        <v>-0.09463095238095676</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -624,13 +624,13 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-11.58190476190477</v>
+        <v>-11.58190476190476</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-11.48004761904764</v>
+        <v>-11.48004761904762</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.1018571428571331</v>
+        <v>-0.1018571428571473</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -644,10 +644,10 @@
         <v>-11.5952380952381</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-11.48234523809526</v>
+        <v>-11.48234523809523</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1128928571428478</v>
+        <v>-0.1128928571428638</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -658,13 +658,13 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-11.61142857142858</v>
+        <v>-11.61142857142857</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-11.48464285714287</v>
+        <v>-11.48464285714286</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1267857142857043</v>
+        <v>-0.1267857142857185</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -675,13 +675,13 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-11.63095238095239</v>
+        <v>-11.63095238095238</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-11.48694047619049</v>
+        <v>-11.48694047619047</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1440119047618964</v>
+        <v>-0.1440119047619088</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -695,10 +695,10 @@
         <v>-11.65238095238096</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-11.48923809523811</v>
+        <v>-11.48923809523809</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1631428571428479</v>
+        <v>-0.1631428571428621</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -712,10 +712,10 @@
         <v>-11.67571428571429</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-11.49153571428573</v>
+        <v>-11.49153571428571</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1841785714285624</v>
+        <v>-0.1841785714285749</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -726,13 +726,13 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-11.70000000000001</v>
+        <v>-11.7</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-11.49383333333335</v>
+        <v>-11.49383333333333</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.2061666666666557</v>
+        <v>-0.2061666666666682</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -746,10 +746,10 @@
         <v>-11.72428571428572</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-11.49613095238097</v>
+        <v>-11.49613095238095</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.2281547619047526</v>
+        <v>-0.228154761904765</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -760,13 +760,13 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-11.74666666666668</v>
+        <v>-11.74666666666667</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-11.49842857142859</v>
+        <v>-11.49842857142857</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.2482380952380865</v>
+        <v>-0.2482380952380989</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -777,13 +777,13 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-11.7704761904762</v>
+        <v>-11.77047619047619</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-11.50072619047621</v>
+        <v>-11.50072619047619</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2697499999999913</v>
+        <v>-0.2697500000000019</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -794,13 +794,13 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-11.79142857142858</v>
+        <v>-11.79142857142857</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-11.50302380952383</v>
+        <v>-11.50302380952381</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2884047619047543</v>
+        <v>-0.2884047619047649</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -814,10 +814,10 @@
         <v>-11.80714285714286</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-11.50532142857145</v>
+        <v>-11.50532142857143</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.3018214285714187</v>
+        <v>-0.3018214285714311</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -828,13 +828,13 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-11.82142857142858</v>
+        <v>-11.82142857142857</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-11.50761904761906</v>
+        <v>-11.50761904761905</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.3138095238095158</v>
+        <v>-0.3138095238095264</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -845,13 +845,13 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-11.8304761904762</v>
+        <v>-11.83047619047619</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-11.50991666666668</v>
+        <v>-11.50991666666667</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.320559523809516</v>
+        <v>-0.3205595238095249</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -862,13 +862,13 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-11.83761904761906</v>
+        <v>-11.83761904761905</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-11.5122142857143</v>
+        <v>-11.51221428571428</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3254047619047551</v>
+        <v>-0.3254047619047657</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -879,13 +879,13 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-11.84380952380953</v>
+        <v>-11.84380952380952</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-11.51451190476192</v>
+        <v>-11.51451190476191</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.32929761904761</v>
+        <v>-0.3292976190476189</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -896,13 +896,13 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-11.84761904761906</v>
+        <v>-11.84761904761905</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-11.51680952380954</v>
+        <v>-11.51680952380952</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.3308095238095135</v>
+        <v>-0.3308095238095241</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -913,13 +913,13 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-11.84952380952382</v>
+        <v>-11.84952380952381</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-11.51910714285716</v>
+        <v>-11.51910714285714</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.3304166666666557</v>
+        <v>-0.3304166666666681</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -930,13 +930,13 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-11.85190476190477</v>
+        <v>-11.85190476190476</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-11.52140476190478</v>
+        <v>-11.52140476190476</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.33049999999999</v>
+        <v>-0.3305000000000007</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -947,13 +947,13 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-11.8504761904762</v>
+        <v>-11.85047619047619</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-11.5237023809524</v>
+        <v>-11.52370238095238</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.3267738095237984</v>
+        <v>-0.3267738095238109</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -967,10 +967,10 @@
         <v>-11.84619047619048</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-11.52600000000002</v>
+        <v>-11.526</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.320190476190465</v>
+        <v>-0.3201904761904757</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -981,13 +981,13 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-11.84095238095239</v>
+        <v>-11.84095238095238</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-11.52829761904764</v>
+        <v>-11.52829761904762</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.3126547619047528</v>
+        <v>-0.3126547619047635</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1001,10 +1001,10 @@
         <v>-11.83333333333334</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-11.53059523809526</v>
+        <v>-11.53059523809524</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.3027380952380874</v>
+        <v>-0.3027380952380962</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1018,10 +1018,10 @@
         <v>-11.82714285714286</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-11.53289285714287</v>
+        <v>-11.53289285714286</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.2942499999999892</v>
+        <v>-0.2942499999999999</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1032,13 +1032,13 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-11.82285714285715</v>
+        <v>-11.82285714285714</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-11.53519047619049</v>
+        <v>-11.53519047619048</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.2876666666666576</v>
+        <v>-0.2876666666666665</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1049,13 +1049,13 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-11.81761904761906</v>
+        <v>-11.81761904761905</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-11.53748809523811</v>
+        <v>-11.5374880952381</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.2801309523809454</v>
+        <v>-0.2801309523809543</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1066,13 +1066,13 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-11.80952380952382</v>
+        <v>-11.80952380952381</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-11.53978571428573</v>
+        <v>-11.53978571428572</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.2697380952380861</v>
+        <v>-0.2697380952380968</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1083,13 +1083,13 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-11.80000000000001</v>
+        <v>-11.8</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-11.54208333333335</v>
+        <v>-11.54208333333333</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.2579166666666577</v>
+        <v>-0.2579166666666666</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1100,13 +1100,13 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-11.7904761904762</v>
+        <v>-11.79047619047619</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-11.54438095238097</v>
+        <v>-11.54438095238095</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.2460952380952293</v>
+        <v>-0.2460952380952381</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1117,13 +1117,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-11.78238095238096</v>
+        <v>-11.78238095238095</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-11.54667857142859</v>
+        <v>-11.54667857142857</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.2357023809523735</v>
+        <v>-0.2357023809523806</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1134,13 +1134,13 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-11.77714285714287</v>
+        <v>-11.77714285714286</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-11.54897619047621</v>
+        <v>-11.54897619047619</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.2281666666666595</v>
+        <v>-0.2281666666666666</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1151,13 +1151,13 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-11.77285714285715</v>
+        <v>-11.77285714285714</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-11.55127380952383</v>
+        <v>-11.55127380952381</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.2215833333333261</v>
+        <v>-0.2215833333333332</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1171,10 +1171,10 @@
         <v>-11.76666666666667</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-11.55357142857144</v>
+        <v>-11.55357142857143</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.2130952380952298</v>
+        <v>-0.2130952380952387</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1185,13 +1185,13 @@
         <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-11.76000000000001</v>
+        <v>-11.76</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-11.55586904761906</v>
+        <v>-11.55586904761905</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.2041309523809449</v>
+        <v>-0.204130952380952</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1202,13 +1202,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-11.75428571428572</v>
+        <v>-11.75428571428571</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-11.55816666666668</v>
+        <v>-11.55816666666667</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.1961190476190389</v>
+        <v>-0.196119047619046</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1219,13 +1219,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-11.74666666666668</v>
+        <v>-11.74666666666667</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-11.5604642857143</v>
+        <v>-11.56046428571429</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1862023809523734</v>
+        <v>-0.1862023809523787</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1236,13 +1236,13 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-11.73952380952382</v>
+        <v>-11.73952380952381</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-11.56276190476192</v>
+        <v>-11.56276190476191</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1767619047618965</v>
+        <v>-0.1767619047619018</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1253,13 +1253,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-11.73095238095239</v>
+        <v>-11.73095238095238</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-11.56505952380954</v>
+        <v>-11.56505952380953</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1658928571428486</v>
+        <v>-0.165892857142854</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1270,13 +1270,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-11.72000000000001</v>
+        <v>-11.72</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-11.56735714285716</v>
+        <v>-11.56735714285715</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.1526428571428475</v>
+        <v>-0.1526428571428546</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1287,13 +1287,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-11.71000000000001</v>
+        <v>-11.71</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-11.56965476190478</v>
+        <v>-11.56965476190476</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.1403452380952288</v>
+        <v>-0.1403452380952359</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1304,13 +1304,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-11.70095238095239</v>
+        <v>-11.70095238095238</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-11.5719523809524</v>
+        <v>-11.57195238095238</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.1289999999999907</v>
+        <v>-0.128999999999996</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1321,13 +1321,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-11.68952380952382</v>
+        <v>-11.68952380952381</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-11.57425000000002</v>
+        <v>-11.57425</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.1152738095238011</v>
+        <v>-0.1152738095238064</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1338,13 +1338,13 @@
         <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-11.67666666666668</v>
+        <v>-11.67666666666667</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-11.57654761904763</v>
+        <v>-11.57654761904762</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.1001190476190423</v>
+        <v>-0.1001190476190441</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1355,13 +1355,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-11.66333333333334</v>
+        <v>-11.66333333333333</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-11.57884523809525</v>
+        <v>-11.57884523809524</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.08448809523808798</v>
+        <v>-0.08448809523809153</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1372,13 +1372,13 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-11.6504761904762</v>
+        <v>-11.65047619047619</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-11.58114285714287</v>
+        <v>-11.58114285714286</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.0693333333333257</v>
+        <v>-0.06933333333333103</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1389,13 +1389,13 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-11.63904761904763</v>
+        <v>-11.63904761904762</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-11.58344047619049</v>
+        <v>-11.58344047619048</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.05560714285713608</v>
+        <v>-0.05560714285714141</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1406,13 +1406,13 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-11.62904761904763</v>
+        <v>-11.62904761904762</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-11.58573809523811</v>
+        <v>-11.5857380952381</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.04330952380951736</v>
+        <v>-0.04330952380952269</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1423,13 +1423,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-11.6204761904762</v>
+        <v>-11.62047619047619</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-11.58803571428573</v>
+        <v>-11.58803571428572</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.0324404761904713</v>
+        <v>-0.03244047619047485</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1443,10 +1443,10 @@
         <v>-11.61238095238096</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-11.59033333333335</v>
+        <v>-11.59033333333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.02204761904761554</v>
+        <v>-0.02204761904761909</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1460,10 +1460,10 @@
         <v>-11.60619047619048</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-11.59263095238097</v>
+        <v>-11.59263095238096</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.01355952380951742</v>
+        <v>-0.01355952380951919</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1474,13 +1474,13 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-11.60238095238096</v>
+        <v>-11.60238095238095</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-11.59492857142859</v>
+        <v>-11.59492857142858</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.007452380952376103</v>
+        <v>-0.007452380952377879</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1491,13 +1491,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-11.59952380952382</v>
+        <v>-11.59952380952381</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>-11.5972261904762</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.002297619047615385</v>
+        <v>-0.002297619047617161</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1508,13 +1508,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-11.59952380952382</v>
+        <v>-11.59952380952381</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-11.59952380952382</v>
+        <v>-11.59952380952381</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1525,10 +1525,10 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-11.60238095238096</v>
+        <v>-11.60238095238095</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-11.60238095238096</v>
+        <v>-11.60238095238095</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-11.61952380952382</v>
+        <v>-11.61952380952381</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-11.61952380952382</v>
+        <v>-11.61952380952381</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-11.62952380952382</v>
+        <v>-11.62952380952381</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-11.62952380952382</v>
+        <v>-11.62952380952381</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0</v>
@@ -1610,10 +1610,10 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-11.64238095238096</v>
+        <v>-11.64238095238095</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-11.64238095238096</v>
+        <v>-11.64238095238095</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0</v>
@@ -1644,10 +1644,10 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-11.67238095238096</v>
+        <v>-11.67238095238095</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-11.67238095238096</v>
+        <v>-11.67238095238095</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-11.6904761904762</v>
+        <v>-11.69047619047619</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-11.6904761904762</v>
+        <v>-11.69047619047619</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0</v>
@@ -1678,10 +1678,10 @@
         <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-11.70904761904763</v>
+        <v>-11.70904761904762</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-11.70904761904763</v>
+        <v>-11.70904761904762</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-11.73000000000001</v>
+        <v>-11.73</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-11.73000000000001</v>
+        <v>-11.73</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-11.75000000000001</v>
+        <v>-11.75</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-11.75000000000001</v>
+        <v>-11.75</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-11.76904761904763</v>
+        <v>-11.76904761904762</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-11.76904761904763</v>
+        <v>-11.76904761904762</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1746,10 +1746,10 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-11.7904761904762</v>
+        <v>-11.79047619047619</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-11.7904761904762</v>
+        <v>-11.79047619047619</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1797,10 +1797,10 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-11.86333333333334</v>
+        <v>-11.86333333333333</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-11.86333333333334</v>
+        <v>-11.86333333333333</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>0</v>
@@ -1814,10 +1814,10 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-11.88904761904763</v>
+        <v>-11.88904761904762</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-11.88904761904763</v>
+        <v>-11.88904761904762</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-12.03809523809525</v>
+        <v>-12.03809523809524</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-12.03809523809525</v>
+        <v>-12.03809523809524</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-12.06761904761906</v>
+        <v>-12.06761904761905</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-12.06761904761906</v>
+        <v>-12.06761904761905</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-12.1004761904762</v>
+        <v>-12.10047619047619</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-12.1004761904762</v>
+        <v>-12.10047619047619</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-12.13285714285715</v>
+        <v>-12.13285714285714</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-12.13285714285715</v>
+        <v>-12.13285714285714</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>0</v>
@@ -1967,10 +1967,10 @@
         <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-12.16952380952382</v>
+        <v>-12.16952380952381</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-12.16952380952382</v>
+        <v>-12.16952380952381</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>0</v>
@@ -1984,10 +1984,10 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-12.20904761904763</v>
+        <v>-12.20904761904762</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-12.20904761904763</v>
+        <v>-12.20904761904762</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-12.25000000000001</v>
+        <v>-12.25</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-12.25000000000001</v>
+        <v>-12.25</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>0</v>
@@ -2018,10 +2018,10 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-12.29000000000001</v>
+        <v>-12.29</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-12.29000000000001</v>
+        <v>-12.29</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2035,10 +2035,10 @@
         <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-12.32904761904763</v>
+        <v>-12.32904761904762</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-12.32904761904763</v>
+        <v>-12.32904761904762</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-12.3704761904762</v>
+        <v>-12.37047619047619</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-12.3704761904762</v>
+        <v>-12.37047619047619</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2069,10 +2069,10 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-12.41142857142858</v>
+        <v>-12.41142857142857</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-12.41142857142858</v>
+        <v>-12.41142857142857</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2120,10 +2120,10 @@
         <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-12.55714285714287</v>
+        <v>-12.55714285714286</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-12.55714285714287</v>
+        <v>-12.55714285714286</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-12.60952380952383</v>
+        <v>-12.60952380952382</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-12.60952380952383</v>
+        <v>-12.60952380952382</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1389761904761819</v>
+        <v>-0.1389761904761979</v>
       </c>
     </row>
     <row r="3">
@@ -2231,7 +2231,7 @@
         <v>-0.1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.3308095238095135</v>
+        <v>-0.3308095238095241</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp5.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,58 +477,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-11.46166666666666</v>
+        <v>-11.85000000000001</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-11.46166666666666</v>
+        <v>-11.85000000000002</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.77635683940025e-15</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.136</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.1389761904761979</v>
+        <v>-0.03444940476189906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-11.56880952380953</v>
+        <v>-11.84976190476191</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-11.46396428571428</v>
+        <v>-11.84257440476192</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.104845238095244</v>
+        <v>-0.007187499999986358</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.18</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.3308095238095241</v>
+        <v>-0.03803571428570862</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-11.6052380952381</v>
+        <v>-11.85047619047619</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-11.4662619047619</v>
+        <v>-11.83514880952382</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.1389761904761979</v>
+        <v>-0.01532738095236752</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -536,16 +536,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-11.59761904761905</v>
+        <v>-11.8504761904762</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-11.46855952380952</v>
+        <v>-11.82772321428573</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.1290595238095271</v>
+        <v>-0.02275297619046768</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -553,16 +553,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-11.57619047619048</v>
+        <v>-11.84619047619048</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-11.47085714285714</v>
+        <v>-11.82029761904763</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.1053333333333359</v>
+        <v>-0.02589285714284806</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -570,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-11.57142857142857</v>
+        <v>-11.84095238095239</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-11.47315476190476</v>
+        <v>-11.81287202380954</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.09827380952381404</v>
+        <v>-0.02808035714284784</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -587,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-11.56904761904762</v>
+        <v>-11.83333333333334</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-11.47545238095238</v>
+        <v>-11.80544642857144</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.09359523809524184</v>
+        <v>-0.02788690476189792</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -604,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-11.57238095238095</v>
+        <v>-11.82714285714286</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-11.47775</v>
+        <v>-11.79802083333335</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.09463095238095676</v>
+        <v>-0.02912202380951534</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -621,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-11.58190476190476</v>
+        <v>-11.82285714285715</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-11.48004761904762</v>
+        <v>-11.79059523809525</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.1018571428571473</v>
+        <v>-0.03226190476189572</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -638,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-11.5952380952381</v>
+        <v>-11.81761904761906</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-11.48234523809523</v>
+        <v>-11.78316964285716</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.1128928571428638</v>
+        <v>-0.03444940476189906</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -655,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-11.61142857142857</v>
+        <v>-11.80952380952382</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-11.48464285714286</v>
+        <v>-11.77574404761906</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.1267857142857185</v>
+        <v>-0.03377976190475529</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -672,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-11.63095238095238</v>
+        <v>-11.80000000000001</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-11.48694047619047</v>
+        <v>-11.76831845238097</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.1440119047619088</v>
+        <v>-0.03168154761904063</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -689,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-11.65238095238096</v>
+        <v>-11.7904761904762</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-11.48923809523809</v>
+        <v>-11.76089285714287</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.1631428571428621</v>
+        <v>-0.02958333333332597</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -706,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-11.67571428571429</v>
+        <v>-11.78238095238096</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-11.49153571428571</v>
+        <v>-11.75346726190478</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.1841785714285749</v>
+        <v>-0.02891369047618397</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -723,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-11.7</v>
+        <v>-11.77714285714287</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-11.49383333333333</v>
+        <v>-11.74604166666668</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.2061666666666682</v>
+        <v>-0.03110119047618554</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -740,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-11.72428571428572</v>
+        <v>-11.77285714285715</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-11.49613095238095</v>
+        <v>-11.73861607142859</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.228154761904765</v>
+        <v>-0.03424107142856592</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -757,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-11.74666666666667</v>
+        <v>-11.76666666666668</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-11.49842857142857</v>
+        <v>-11.73119047619049</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.2482380952380989</v>
+        <v>-0.03547619047618511</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -774,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-11.77047619047619</v>
+        <v>-11.76000000000001</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-11.50072619047619</v>
+        <v>-11.72376488095239</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.2697500000000019</v>
+        <v>-0.03623511904761401</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -791,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-11.79142857142857</v>
+        <v>-11.75428571428572</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-11.50302380952381</v>
+        <v>-11.7163392857143</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2884047619047649</v>
+        <v>-0.03794642857142172</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -808,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-11.80714285714286</v>
+        <v>-11.74666666666667</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-11.50532142857143</v>
+        <v>-11.70891369047621</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.3018214285714311</v>
+        <v>-0.03775297619046825</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -825,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-11.82142857142857</v>
+        <v>-11.73952380952382</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-11.50761904761905</v>
+        <v>-11.70148809523811</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.3138095238095264</v>
+        <v>-0.03803571428570862</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -842,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-11.83047619047619</v>
+        <v>-11.73095238095239</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-11.50991666666667</v>
+        <v>-11.69406250000001</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.3205595238095249</v>
+        <v>-0.03688988095237455</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -859,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-11.83761904761905</v>
+        <v>-11.72000000000001</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-11.51221428571428</v>
+        <v>-11.68663690476192</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3254047619047657</v>
+        <v>-0.03336309523808723</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -876,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-11.84380952380952</v>
+        <v>-11.71000000000001</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-11.51451190476191</v>
+        <v>-11.67921130952382</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3292976190476189</v>
+        <v>-0.03078869047618404</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -893,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-11.84761904761905</v>
+        <v>-11.70095238095239</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-11.51680952380952</v>
+        <v>-11.67178571428573</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.3308095238095241</v>
+        <v>-0.02916666666665968</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -910,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-11.84952380952381</v>
+        <v>-11.68952380952382</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-11.51910714285714</v>
+        <v>-11.66436011904763</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.3304166666666681</v>
+        <v>-0.02516369047618383</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -927,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-11.85190476190476</v>
+        <v>-11.67666666666667</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-11.52140476190476</v>
+        <v>-11.65693452380954</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.3305000000000007</v>
+        <v>-0.01973214285713532</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -944,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-11.85047619047619</v>
+        <v>-11.66333333333334</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-11.52370238095238</v>
+        <v>-11.64950892857144</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.3267738095238109</v>
+        <v>-0.01382440476190006</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -961,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-11.84619047619048</v>
+        <v>-11.6504761904762</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-11.526</v>
+        <v>-11.64208333333335</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.3201904761904757</v>
+        <v>-0.00839285714285154</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -978,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-11.84095238095238</v>
+        <v>-11.63904761904763</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-11.52829761904762</v>
+        <v>-11.63465773809525</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.3126547619047635</v>
+        <v>-0.004389880952375691</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -995,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-11.83333333333334</v>
+        <v>-11.62904761904763</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-11.53059523809524</v>
+        <v>-11.62723214285716</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.3027380952380962</v>
+        <v>-0.001815476190470733</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-11.82714285714286</v>
+        <v>-11.6204761904762</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-11.53289285714286</v>
+        <v>-11.61980654761906</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.2942499999999999</v>
+        <v>-0.000669642857140218</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-11.82285714285714</v>
+        <v>-11.61238095238096</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-11.53519047619048</v>
+        <v>-11.61238095238097</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.2876666666666665</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-11.81761904761905</v>
+        <v>-11.60619047619048</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-11.5374880952381</v>
+        <v>-11.60619047619048</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.2801309523809543</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-11.80952380952381</v>
+        <v>-11.60238095238096</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-11.53978571428572</v>
+        <v>-11.60238095238096</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.2697380952380968</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-11.8</v>
+        <v>-11.59952380952382</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-11.54208333333333</v>
+        <v>-11.59952380952382</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.2579166666666666</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-11.79047619047619</v>
+        <v>-11.59952380952382</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-11.54438095238095</v>
+        <v>-11.59952380952382</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.2460952380952381</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-11.78238095238095</v>
+        <v>-11.60238095238096</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-11.54667857142857</v>
+        <v>-11.60238095238096</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.2357023809523806</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-11.77714285714286</v>
+        <v>-11.60619047619048</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-11.54897619047619</v>
+        <v>-11.60619047619048</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.2281666666666666</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-11.77285714285714</v>
+        <v>-11.61238095238096</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-11.55127380952381</v>
+        <v>-11.61238095238096</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.2215833333333332</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-11.76666666666667</v>
+        <v>-11.61952380952382</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-11.55357142857143</v>
+        <v>-11.61952380952382</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.2130952380952387</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-11.76</v>
+        <v>-11.62952380952382</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-11.55586904761905</v>
+        <v>-11.62952380952382</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.204130952380952</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-11.75428571428571</v>
+        <v>-11.64238095238096</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-11.55816666666667</v>
+        <v>-11.64238095238096</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.196119047619046</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-11.74666666666667</v>
+        <v>-11.65619047619048</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-11.56046428571429</v>
+        <v>-11.65619047619048</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1862023809523787</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-11.73952380952381</v>
+        <v>-11.67238095238096</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-11.56276190476191</v>
+        <v>-11.67238095238096</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1767619047619018</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-11.73095238095238</v>
+        <v>-11.6904761904762</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-11.56505952380953</v>
+        <v>-11.6904761904762</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.165892857142854</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-11.72</v>
+        <v>-11.70904761904763</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-11.56735714285715</v>
+        <v>-11.70904761904763</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.1526428571428546</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-11.71</v>
+        <v>-11.73000000000001</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-11.56965476190476</v>
+        <v>-11.73000000000001</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.1403452380952359</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-11.70095238095238</v>
+        <v>-11.75000000000001</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-11.57195238095238</v>
+        <v>-11.75000000000001</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.128999999999996</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1318,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-11.68952380952381</v>
+        <v>-11.76904761904763</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-11.57425</v>
+        <v>-11.76904761904763</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.1152738095238064</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1335,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-11.67666666666667</v>
+        <v>-11.7904761904762</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-11.57654761904762</v>
+        <v>-11.7904761904762</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.1001190476190441</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-11.66333333333333</v>
+        <v>-11.81238095238096</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-11.57884523809524</v>
+        <v>-11.81238095238096</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.08448809523809153</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1369,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-11.65047619047619</v>
+        <v>-11.83619047619048</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-11.58114285714286</v>
+        <v>-11.83619047619048</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.06933333333333103</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1386,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-11.63904761904762</v>
+        <v>-11.86333333333334</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-11.58344047619048</v>
+        <v>-11.86333333333334</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.05560714285714141</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1403,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-11.62904761904762</v>
+        <v>-11.88904761904763</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-11.5857380952381</v>
+        <v>-11.88904761904763</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.04330952380952269</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1420,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-11.62047619047619</v>
+        <v>-11.91714285714286</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-11.58803571428572</v>
+        <v>-11.91714285714286</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.03244047619047485</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-11.61238095238096</v>
+        <v>-11.9452380952381</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-11.59033333333334</v>
+        <v>-11.9452380952381</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.02204761904761909</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1454,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-11.60619047619048</v>
+        <v>-11.97428571428572</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-11.59263095238096</v>
+        <v>-11.97428571428572</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.01355952380951919</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-11.60238095238095</v>
+        <v>-12.0052380952381</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-11.59492857142858</v>
+        <v>-12.0052380952381</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.007452380952377879</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1488,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-11.59952380952381</v>
+        <v>-12.03809523809525</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-11.5972261904762</v>
+        <v>-12.03809523809525</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.002297619047617161</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1505,16 +1505,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-11.59952380952381</v>
+        <v>-12.06761904761906</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-11.59952380952381</v>
+        <v>-12.06761904761906</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1.77635683940025e-15</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-11.60238095238095</v>
+        <v>-12.1004761904762</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-11.60238095238095</v>
+        <v>-12.1004761904762</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-11.60619047619048</v>
+        <v>-12.13285714285715</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-11.60619047619048</v>
+        <v>-12.13285714285715</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-11.61238095238096</v>
+        <v>-12.16952380952382</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-11.61238095238096</v>
+        <v>-12.16952380952382</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-11.61952380952381</v>
+        <v>-12.20904761904763</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-11.61952380952381</v>
+        <v>-12.20904761904763</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-11.62952380952381</v>
+        <v>-12.25000000000001</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-11.62952380952381</v>
+        <v>-12.25000000000001</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-11.64238095238095</v>
+        <v>-12.29000000000001</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-11.64238095238095</v>
+        <v>-12.29000000000001</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-11.65619047619048</v>
+        <v>-12.32904761904763</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-11.65619047619048</v>
+        <v>-12.32904761904763</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0</v>
@@ -1641,13 +1641,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-11.67238095238095</v>
+        <v>-12.3704761904762</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-11.67238095238095</v>
+        <v>-12.3704761904762</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-11.69047619047619</v>
+        <v>-12.41142857142858</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-11.69047619047619</v>
+        <v>-12.41142857142858</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-11.70904761904762</v>
+        <v>-12.45666666666667</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-11.70904761904762</v>
+        <v>-12.45666666666667</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-11.73</v>
+        <v>-12.50571428571429</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-11.73</v>
+        <v>-12.50571428571429</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-11.75</v>
+        <v>-12.55714285714286</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-11.75</v>
+        <v>-12.55714285714286</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-11.76904761904762</v>
+        <v>-12.60952380952383</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-11.76904761904762</v>
+        <v>-12.60952380952383</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1743,13 +1743,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-11.79047619047619</v>
+        <v>-12.6609523809524</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-11.79047619047619</v>
+        <v>-12.6609523809524</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-11.81238095238096</v>
+        <v>-12.70976190476193</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-11.81238095238096</v>
+        <v>-12.70976190476193</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1774,414 +1774,6 @@
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>-0.308</v>
-      </c>
-      <c r="B78" s="2" t="n">
-        <v>-11.83619047619048</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>-11.83619047619048</v>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-      <c r="G78" s="2" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>-0.312</v>
-      </c>
-      <c r="B79" s="2" t="n">
-        <v>-11.86333333333333</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>-11.86333333333333</v>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E79" s="2" t="n"/>
-      <c r="F79" s="2" t="n"/>
-      <c r="G79" s="2" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>-0.316</v>
-      </c>
-      <c r="B80" s="2" t="n">
-        <v>-11.88904761904762</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>-11.88904761904762</v>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" s="2" t="n"/>
-      <c r="F80" s="2" t="n"/>
-      <c r="G80" s="2" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="B81" s="2" t="n">
-        <v>-11.91714285714286</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>-11.91714285714286</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="2" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>-0.324</v>
-      </c>
-      <c r="B82" s="2" t="n">
-        <v>-11.9452380952381</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>-11.9452380952381</v>
-      </c>
-      <c r="D82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="2" t="n"/>
-      <c r="F82" s="2" t="n"/>
-      <c r="G82" s="2" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>-0.328</v>
-      </c>
-      <c r="B83" s="2" t="n">
-        <v>-11.97428571428572</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>-11.97428571428572</v>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="2" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>-0.332</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>-12.0052380952381</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>-12.0052380952381</v>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="2" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>-0.336</v>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>-12.03809523809524</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>-12.03809523809524</v>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E85" s="2" t="n"/>
-      <c r="F85" s="2" t="n"/>
-      <c r="G85" s="2" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>-0.34</v>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>-12.06761904761905</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>-12.06761904761905</v>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-      <c r="G86" s="2" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>-0.344</v>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>-12.10047619047619</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>-12.10047619047619</v>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" s="2" t="n"/>
-      <c r="F87" s="2" t="n"/>
-      <c r="G87" s="2" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>-0.348</v>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>-12.13285714285714</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>-12.13285714285714</v>
-      </c>
-      <c r="D88" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-      <c r="G88" s="2" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>-0.352</v>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>-12.16952380952381</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>-12.16952380952381</v>
-      </c>
-      <c r="D89" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="2" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>-0.356</v>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>-12.20904761904762</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>-12.20904761904762</v>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-      <c r="G90" s="2" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>-0.36</v>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>-12.25</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>-12.25</v>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-      <c r="G91" s="2" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>-0.364</v>
-      </c>
-      <c r="B92" s="2" t="n">
-        <v>-12.29</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>-12.29</v>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="2" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>-0.368</v>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>-12.32904761904762</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>-12.32904761904762</v>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2" t="n"/>
-      <c r="F93" s="2" t="n"/>
-      <c r="G93" s="2" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>-0.372</v>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>-12.37047619047619</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>-12.37047619047619</v>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2" t="n"/>
-      <c r="F94" s="2" t="n"/>
-      <c r="G94" s="2" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>-0.376</v>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>-12.41142857142857</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>-12.41142857142857</v>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="2" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>-0.38</v>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>-12.45666666666667</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>-12.45666666666667</v>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="2" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>-0.384</v>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>-12.50571428571429</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>-12.50571428571429</v>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="2" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>-0.388</v>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>-12.55714285714286</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>-12.55714285714286</v>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2" t="n"/>
-      <c r="F98" s="2" t="n"/>
-      <c r="G98" s="2" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>-0.392</v>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>-12.60952380952382</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>-12.60952380952382</v>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="2" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>-0.396</v>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>-12.6609523809524</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>-12.6609523809524</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2" t="n"/>
-      <c r="F100" s="2" t="n"/>
-      <c r="G100" s="2" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="B101" s="2" t="n">
-        <v>-12.70976190476193</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>-12.70976190476193</v>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2220,18 +1812,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.136</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1389761904761979</v>
+        <v>-0.03444940476189906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.18</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.3308095238095241</v>
+        <v>-0.03803571428570862</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Pbp5.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Pbp5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,58 +477,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-11.85000000000001</v>
+        <v>-11.46166666666668</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-11.85000000000002</v>
+        <v>-11.46166666666668</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.03444940476189906</v>
+        <v>-0.1389761904761819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-11.84976190476191</v>
+        <v>-11.56880952380953</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-11.84257440476192</v>
+        <v>-11.4639642857143</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.007187499999986358</v>
+        <v>-0.1048452380952316</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.1</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.03803571428570862</v>
+        <v>-0.3308095238095188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-11.85047619047619</v>
+        <v>-11.6052380952381</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-11.83514880952382</v>
+        <v>-11.46626190476192</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.01532738095236752</v>
+        <v>-0.1389761904761819</v>
       </c>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
@@ -536,16 +536,16 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-11.8504761904762</v>
+        <v>-11.59761904761906</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-11.82772321428573</v>
+        <v>-11.46855952380954</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.02275297619046768</v>
+        <v>-0.1290595238095182</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -553,16 +553,16 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-11.84619047619048</v>
+        <v>-11.57619047619048</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-11.82029761904763</v>
+        <v>-11.47085714285716</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.02589285714284806</v>
+        <v>-0.1053333333333271</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -570,16 +570,16 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-11.84095238095239</v>
+        <v>-11.57142857142858</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-11.81287202380954</v>
+        <v>-11.47315476190477</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.02808035714284784</v>
+        <v>-0.0982738095238016</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -587,16 +587,16 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-11.83333333333334</v>
+        <v>-11.56904761904763</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-11.80544642857144</v>
+        <v>-11.47545238095239</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.02788690476189792</v>
+        <v>-0.09359523809523296</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -604,16 +604,16 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-11.82714285714286</v>
+        <v>-11.57238095238096</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-11.79802083333335</v>
+        <v>-11.47775000000001</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.02912202380951534</v>
+        <v>-0.0946309523809461</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -621,16 +621,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-11.82285714285715</v>
+        <v>-11.58190476190477</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-11.79059523809525</v>
+        <v>-11.48004761904763</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03226190476189572</v>
+        <v>-0.1018571428571384</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -638,16 +638,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-11.81761904761906</v>
+        <v>-11.5952380952381</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-11.78316964285716</v>
+        <v>-11.48234523809525</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.03444940476189906</v>
+        <v>-0.1128928571428531</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -655,16 +655,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-11.80952380952382</v>
+        <v>-11.61142857142858</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-11.77574404761906</v>
+        <v>-11.48464285714287</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.03377976190475529</v>
+        <v>-0.1267857142857096</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -672,16 +672,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-11.80000000000001</v>
+        <v>-11.63095238095239</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-11.76831845238097</v>
+        <v>-11.48694047619049</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.03168154761904063</v>
+        <v>-0.1440119047619017</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -689,16 +689,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-11.7904761904762</v>
+        <v>-11.65238095238096</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-11.76089285714287</v>
+        <v>-11.48923809523811</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.02958333333332597</v>
+        <v>-0.1631428571428533</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -706,16 +706,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-11.78238095238096</v>
+        <v>-11.67571428571429</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-11.75346726190478</v>
+        <v>-11.49153571428573</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.02891369047618397</v>
+        <v>-0.1841785714285677</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -723,16 +723,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-11.77714285714287</v>
+        <v>-11.70000000000001</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-11.74604166666668</v>
+        <v>-11.49383333333335</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.03110119047618554</v>
+        <v>-0.2061666666666611</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -740,16 +740,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-11.77285714285715</v>
+        <v>-11.72428571428572</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-11.73861607142859</v>
+        <v>-11.49613095238097</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.03424107142856592</v>
+        <v>-0.2281547619047561</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -757,16 +757,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-11.76666666666668</v>
+        <v>-11.74666666666668</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-11.73119047619049</v>
+        <v>-11.49842857142858</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.03547619047618511</v>
+        <v>-0.24823809523809</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -774,16 +774,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-11.76000000000001</v>
+        <v>-11.7704761904762</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-11.72376488095239</v>
+        <v>-11.5007261904762</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.03623511904761401</v>
+        <v>-0.2697499999999948</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -791,16 +791,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-11.75428571428572</v>
+        <v>-11.79142857142858</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-11.7163392857143</v>
+        <v>-11.50302380952382</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.03794642857142172</v>
+        <v>-0.2884047619047578</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -808,16 +808,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-11.74666666666667</v>
+        <v>-11.80714285714286</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-11.70891369047621</v>
+        <v>-11.50532142857144</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.03775297619046825</v>
+        <v>-0.3018214285714222</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -825,16 +825,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-11.73952380952382</v>
+        <v>-11.82142857142858</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-11.70148809523811</v>
+        <v>-11.50761904761906</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.03803571428570862</v>
+        <v>-0.3138095238095193</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -842,16 +842,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-11.73095238095239</v>
+        <v>-11.8304761904762</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-11.69406250000001</v>
+        <v>-11.50991666666668</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.03688988095237455</v>
+        <v>-0.3205595238095196</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -859,16 +859,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-11.72000000000001</v>
+        <v>-11.83761904761906</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-11.68663690476192</v>
+        <v>-11.5122142857143</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.03336309523808723</v>
+        <v>-0.3254047619047586</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -876,16 +876,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-11.71000000000001</v>
+        <v>-11.84380952380953</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-11.67921130952382</v>
+        <v>-11.51451190476192</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.03078869047618404</v>
+        <v>-0.3292976190476153</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -893,16 +893,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-11.70095238095239</v>
+        <v>-11.84761904761906</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-11.67178571428573</v>
+        <v>-11.51680952380954</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.02916666666665968</v>
+        <v>-0.3308095238095188</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -910,16 +910,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-11.68952380952382</v>
+        <v>-11.84952380952382</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-11.66436011904763</v>
+        <v>-11.51910714285716</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.02516369047618383</v>
+        <v>-0.330416666666661</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -927,16 +927,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-11.67666666666667</v>
+        <v>-11.85190476190477</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-11.65693452380954</v>
+        <v>-11.52140476190477</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.01973214285713532</v>
+        <v>-0.3304999999999954</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -944,16 +944,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-11.66333333333334</v>
+        <v>-11.8504761904762</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-11.64950892857144</v>
+        <v>-11.52370238095239</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.01382440476190006</v>
+        <v>-0.3267738095238037</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -961,16 +961,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-11.6504761904762</v>
+        <v>-11.84619047619048</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-11.64208333333335</v>
+        <v>-11.52600000000001</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.00839285714285154</v>
+        <v>-0.3201904761904704</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -978,16 +978,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-11.63904761904763</v>
+        <v>-11.84095238095239</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-11.63465773809525</v>
+        <v>-11.52829761904763</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.004389880952375691</v>
+        <v>-0.3126547619047582</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -995,16 +995,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-11.62904761904763</v>
+        <v>-11.83333333333334</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-11.62723214285716</v>
+        <v>-11.53059523809525</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.001815476190470733</v>
+        <v>-0.3027380952380927</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1012,16 +1012,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-11.6204761904762</v>
+        <v>-11.82714285714286</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-11.61980654761906</v>
+        <v>-11.53289285714287</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.000669642857140218</v>
+        <v>-0.2942499999999946</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-11.61238095238096</v>
+        <v>-11.82285714285715</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-11.61238095238097</v>
+        <v>-11.53519047619049</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>-0.287666666666663</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1046,16 +1046,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-11.60619047619048</v>
+        <v>-11.81761904761906</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-11.60619047619048</v>
+        <v>-11.53748809523811</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0</v>
+        <v>-0.2801309523809508</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1063,16 +1063,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-11.60238095238096</v>
+        <v>-11.80952380952382</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-11.60238095238096</v>
+        <v>-11.53978571428573</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0</v>
+        <v>-0.2697380952380914</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1080,16 +1080,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-11.59952380952382</v>
+        <v>-11.80000000000001</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-11.59952380952382</v>
+        <v>-11.54208333333334</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0</v>
+        <v>-0.257916666666663</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1097,16 +1097,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-11.59952380952382</v>
+        <v>-11.7904761904762</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-11.59952380952382</v>
+        <v>-11.54438095238096</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0</v>
+        <v>-0.2460952380952346</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1114,16 +1114,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-11.60238095238096</v>
+        <v>-11.78238095238096</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-11.60238095238096</v>
+        <v>-11.54667857142858</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0</v>
+        <v>-0.2357023809523788</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-11.60619047619048</v>
+        <v>-11.77714285714287</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-11.60619047619048</v>
+        <v>-11.5489761904762</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0</v>
+        <v>-0.2281666666666649</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1148,16 +1148,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-11.61238095238096</v>
+        <v>-11.77285714285715</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-11.61238095238096</v>
+        <v>-11.55127380952382</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0</v>
+        <v>-0.2215833333333315</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1165,16 +1165,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-11.61952380952382</v>
+        <v>-11.76666666666667</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-11.61952380952382</v>
+        <v>-11.55357142857144</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0</v>
+        <v>-0.2130952380952351</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1182,16 +1182,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-11.62952380952382</v>
+        <v>-11.76000000000001</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-11.62952380952382</v>
+        <v>-11.55586904761906</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0</v>
+        <v>-0.2041309523809502</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1199,16 +1199,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-11.64238095238096</v>
+        <v>-11.75428571428572</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-11.64238095238096</v>
+        <v>-11.55816666666668</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0</v>
+        <v>-0.1961190476190442</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1216,16 +1216,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-11.65619047619048</v>
+        <v>-11.74666666666668</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-11.65619047619048</v>
+        <v>-11.5604642857143</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>-0.1862023809523787</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-11.67238095238096</v>
+        <v>-11.73952380952382</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-11.67238095238096</v>
+        <v>-11.56276190476192</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0</v>
+        <v>-0.1767619047619</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-11.6904761904762</v>
+        <v>-11.73095238095239</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-11.6904761904762</v>
+        <v>-11.56505952380954</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0</v>
+        <v>-0.1658928571428522</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1267,16 +1267,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-11.70904761904763</v>
+        <v>-11.72000000000001</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-11.70904761904763</v>
+        <v>-11.56735714285715</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0</v>
+        <v>-0.1526428571428511</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-11.73000000000001</v>
+        <v>-11.71000000000001</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-11.73000000000001</v>
+        <v>-11.56965476190477</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0</v>
+        <v>-0.1403452380952324</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1301,16 +1301,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-11.75000000000001</v>
+        <v>-11.70095238095239</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-11.75000000000001</v>
+        <v>-11.57195238095239</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0</v>
+        <v>-0.1289999999999942</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1318,16 +1318,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-11.76904761904763</v>
+        <v>-11.68952380952382</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-11.76904761904763</v>
+        <v>-11.57425000000001</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0</v>
+        <v>-0.1152738095238046</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1335,16 +1335,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-11.7904761904762</v>
+        <v>-11.67666666666668</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-11.7904761904762</v>
+        <v>-11.57654761904763</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0</v>
+        <v>-0.1001190476190459</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-11.81238095238096</v>
+        <v>-11.66333333333334</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-11.81238095238096</v>
+        <v>-11.57884523809525</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0</v>
+        <v>-0.08448809523809153</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1369,16 +1369,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-11.83619047619048</v>
+        <v>-11.6504761904762</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-11.83619047619048</v>
+        <v>-11.58114285714287</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0</v>
+        <v>-0.06933333333332925</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1386,16 +1386,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-11.86333333333334</v>
+        <v>-11.63904761904763</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-11.86333333333334</v>
+        <v>-11.58344047619049</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0</v>
+        <v>-0.05560714285713964</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1403,16 +1403,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-11.88904761904763</v>
+        <v>-11.62904761904763</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-11.88904761904763</v>
+        <v>-11.58573809523811</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0</v>
+        <v>-0.04330952380952091</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1420,16 +1420,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-11.91714285714286</v>
+        <v>-11.6204761904762</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-11.91714285714286</v>
+        <v>-11.58803571428573</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0</v>
+        <v>-0.03244047619047485</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1437,16 +1437,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-11.9452380952381</v>
+        <v>-11.61238095238096</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-11.9452380952381</v>
+        <v>-11.59033333333334</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0</v>
+        <v>-0.02204761904761909</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1454,16 +1454,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-11.97428571428572</v>
+        <v>-11.60619047619048</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-11.97428571428572</v>
+        <v>-11.59263095238096</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0</v>
+        <v>-0.01355952380952097</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1471,16 +1471,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-12.0052380952381</v>
+        <v>-11.60238095238096</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-12.0052380952381</v>
+        <v>-11.59492857142858</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>0</v>
+        <v>-0.007452380952379656</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1488,16 +1488,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-12.03809523809525</v>
+        <v>-11.59952380952382</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-12.03809523809525</v>
+        <v>-11.5972261904762</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0</v>
+        <v>-0.002297619047618937</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-12.06761904761906</v>
+        <v>-11.59952380952382</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-12.06761904761906</v>
+        <v>-11.59952380952382</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>0</v>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-12.1004761904762</v>
+        <v>-11.60238095238096</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-12.1004761904762</v>
+        <v>-11.60238095238096</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-12.13285714285715</v>
+        <v>-11.60619047619048</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-12.13285714285715</v>
+        <v>-11.60619047619048</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>0</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-12.16952380952382</v>
+        <v>-11.61238095238096</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-12.16952380952382</v>
+        <v>-11.61238095238096</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-12.20904761904763</v>
+        <v>-11.61952380952382</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-12.20904761904763</v>
+        <v>-11.61952380952382</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-12.25000000000001</v>
+        <v>-11.62952380952382</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-12.25000000000001</v>
+        <v>-11.62952380952382</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-12.29000000000001</v>
+        <v>-11.64238095238096</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-12.29000000000001</v>
+        <v>-11.64238095238096</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>0</v>
@@ -1624,13 +1624,13 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-12.32904761904763</v>
+        <v>-11.65619047619048</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-12.32904761904763</v>
+        <v>-11.65619047619048</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>0</v>
@@ -1641,13 +1641,13 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-12.3704761904762</v>
+        <v>-11.67238095238096</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-12.3704761904762</v>
+        <v>-11.67238095238096</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-12.41142857142858</v>
+        <v>-11.6904761904762</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-12.41142857142858</v>
+        <v>-11.6904761904762</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>0</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-12.45666666666667</v>
+        <v>-11.70904761904763</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-12.45666666666667</v>
+        <v>-11.70904761904763</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>0</v>
@@ -1692,13 +1692,13 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-12.50571428571429</v>
+        <v>-11.73000000000001</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-12.50571428571429</v>
+        <v>-11.73000000000001</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>0</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-12.55714285714286</v>
+        <v>-11.75000000000001</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-12.55714285714286</v>
+        <v>-11.75000000000001</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>0</v>
@@ -1726,13 +1726,13 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-12.60952380952383</v>
+        <v>-11.76904761904763</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-12.60952380952383</v>
+        <v>-11.76904761904763</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>0</v>
@@ -1743,13 +1743,13 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-12.6609523809524</v>
+        <v>-11.7904761904762</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-12.6609523809524</v>
+        <v>-11.7904761904762</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>0</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-12.70976190476193</v>
+        <v>-11.81238095238096</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-12.70976190476193</v>
+        <v>-11.81238095238096</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>0</v>
@@ -1774,6 +1774,414 @@
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
       <c r="G77" s="2" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>-0.308</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>-11.83619047619048</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>-11.83619047619048</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="n"/>
+      <c r="G78" s="2" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>-0.312</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>-11.86333333333334</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>-11.86333333333334</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="n"/>
+      <c r="F79" s="2" t="n"/>
+      <c r="G79" s="2" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>-0.316</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>-11.88904761904763</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>-11.88904761904763</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="2" t="n"/>
+      <c r="G80" s="2" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>-11.91714285714286</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>-11.91714285714286</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>-0.324</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>-11.9452380952381</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>-11.9452380952381</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="2" t="n"/>
+      <c r="G82" s="2" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>-0.328</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>-11.97428571428572</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>-11.97428571428572</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+      <c r="G83" s="2" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>-0.332</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>-12.0052380952381</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>-12.0052380952381</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+      <c r="G84" s="2" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>-0.336</v>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>-12.03809523809525</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>-12.03809523809525</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2" t="n"/>
+      <c r="F85" s="2" t="n"/>
+      <c r="G85" s="2" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>-12.06761904761906</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>-12.06761904761906</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>-0.344</v>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>-12.1004761904762</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>-12.1004761904762</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2" t="n"/>
+      <c r="F87" s="2" t="n"/>
+      <c r="G87" s="2" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>-0.348</v>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>-12.13285714285715</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>-12.13285714285715</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="n"/>
+      <c r="F88" s="2" t="n"/>
+      <c r="G88" s="2" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>-0.352</v>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>-12.16952380952382</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>-12.16952380952382</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="n"/>
+      <c r="G89" s="2" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>-0.356</v>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>-12.20904761904763</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>-12.20904761904763</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="2" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>-12.25000000000001</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>-12.25000000000001</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="n"/>
+      <c r="F91" s="2" t="n"/>
+      <c r="G91" s="2" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>-0.364</v>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>-12.29000000000001</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>-12.29000000000001</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="n"/>
+      <c r="F92" s="2" t="n"/>
+      <c r="G92" s="2" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>-0.368</v>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>-12.32904761904763</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>-12.32904761904763</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2" t="n"/>
+      <c r="F93" s="2" t="n"/>
+      <c r="G93" s="2" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>-0.372</v>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>-12.3704761904762</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>-12.3704761904762</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2" t="n"/>
+      <c r="F94" s="2" t="n"/>
+      <c r="G94" s="2" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>-0.376</v>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>-12.41142857142858</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>-12.41142857142858</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="n"/>
+      <c r="F95" s="2" t="n"/>
+      <c r="G95" s="2" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>-12.45666666666667</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>-12.45666666666667</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2" t="n"/>
+      <c r="F96" s="2" t="n"/>
+      <c r="G96" s="2" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>-0.384</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>-12.50571428571429</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>-12.50571428571429</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="n"/>
+      <c r="F97" s="2" t="n"/>
+      <c r="G97" s="2" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>-0.388</v>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>-12.55714285714287</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>-12.55714285714287</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
+      <c r="G98" s="2" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>-0.392</v>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>-12.60952380952383</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>-12.60952380952383</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="2" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>-0.396</v>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>-12.6609523809524</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>-12.6609523809524</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="n"/>
+      <c r="F100" s="2" t="n"/>
+      <c r="G100" s="2" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>-12.70976190476193</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>-12.70976190476193</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
+      <c r="G101" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1812,18 +2220,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.03444940476189906</v>
+        <v>-0.1389761904761819</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.1</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.03803571428570862</v>
+        <v>-0.3308095238095188</v>
       </c>
     </row>
   </sheetData>
